--- a/biology/Botanique/Square_du_Tivoli_(Strasbourg)/Square_du_Tivoli_(Strasbourg).xlsx
+++ b/biology/Botanique/Square_du_Tivoli_(Strasbourg)/Square_du_Tivoli_(Strasbourg).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square du Tivoli - Tomi Ungerer est un parc public situé dans le quartier du Wacken à Strasbourg.
@@ -513,14 +525,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au XVIIIe siècle, le site servait de champ de tir à la suite de l'aménagement de l'ancien « Schiessrain » en promenade (actuel parc du Contades)[1].
-Un lieu-dit entouré d'eau désigné sous le nom de « Tivoli » apparaît dans le plan cadastral dès 1834[2]. En 1872, la ferme d'origine est transformée en une brasserie dotée d'un jardin d'été, lieu de rendez-vous des Strasbourgeois amateurs de musique[2].
-L'espace est aménagé en parc vers la fin du XIXe siècle et dénommé « Tivoli Garten », en référence probable à la ville italienne de Tivoli, réputée pour ses jardins et cascades[2].
-Au début du XXe siècle, le Tivoli est le plus célèbre des jardins d'agrément publics de Strasbourg. Guinguettes et bals y attirent les habitants. C'est aussi un lieu privilégié pour les concerts donnés par les régiments en garnison à Strasbourg[3].
-Un monument en hommage aux Forces françaises de l'intérieur (FFI) a été érigé à l'entrée sud du parc[2].
-Le 15 février 2019, la commission de dénomination des rues et des écoles annonce que le square du Tivoli va être renommé « place Tomi Ungerer » en mémoire de l'artiste dont la maison familiale se trouve dans la rue Jean-Jacques Rousseau voisine. Il est également prévu d'y installer une statue ou un buste de l'illustrateur[4]. Le parc prend finalement le nom de « square du Tivoli - Tomi Ungerer ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au XVIIIe siècle, le site servait de champ de tir à la suite de l'aménagement de l'ancien « Schiessrain » en promenade (actuel parc du Contades).
+Un lieu-dit entouré d'eau désigné sous le nom de « Tivoli » apparaît dans le plan cadastral dès 1834. En 1872, la ferme d'origine est transformée en une brasserie dotée d'un jardin d'été, lieu de rendez-vous des Strasbourgeois amateurs de musique.
+L'espace est aménagé en parc vers la fin du XIXe siècle et dénommé « Tivoli Garten », en référence probable à la ville italienne de Tivoli, réputée pour ses jardins et cascades.
+Au début du XXe siècle, le Tivoli est le plus célèbre des jardins d'agrément publics de Strasbourg. Guinguettes et bals y attirent les habitants. C'est aussi un lieu privilégié pour les concerts donnés par les régiments en garnison à Strasbourg.
+Un monument en hommage aux Forces françaises de l'intérieur (FFI) a été érigé à l'entrée sud du parc.
+Le 15 février 2019, la commission de dénomination des rues et des écoles annonce que le square du Tivoli va être renommé « place Tomi Ungerer » en mémoire de l'artiste dont la maison familiale se trouve dans la rue Jean-Jacques Rousseau voisine. Il est également prévu d'y installer une statue ou un buste de l'illustrateur. Le parc prend finalement le nom de « square du Tivoli - Tomi Ungerer ».
 </t>
         </is>
       </c>
